--- a/INTLINE/data/534/MOSPI/NAD/AQEGCurrent_Q_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/NAD/AQEGCurrent_Q_historical.xlsx
@@ -1,402 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AQEGCurrent_Q" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AQEGCurrent_Q" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>Agriculture, forestry &amp; fishing</t>
-  </si>
-  <si>
-    <t>Mining &amp; quarrying</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Electricity, gas ,water supply&amp; other utility services</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Trade, hotels, transport, communication and services related to broadcasting</t>
-  </si>
-  <si>
-    <t>Financial, real estate &amp; professional services</t>
-  </si>
-  <si>
-    <t>GVA at Basic Price</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>GFCE</t>
-  </si>
-  <si>
-    <t>PFCE</t>
-  </si>
-  <si>
-    <t>GFCF</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>Valuables</t>
-  </si>
-  <si>
-    <t>Exports of goods and services</t>
-  </si>
-  <si>
-    <t>Imports of goods and services</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -411,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -430,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -727,3756 +353,4531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:CZ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:104">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:104">
-      <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Agriculture, forestry &amp; fishing</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="n">
         <v>323221.7163674943</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>270231.3821454234</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>505545.338931301</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>402948.8845103789</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>360094.4597295682</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>302960.7921107642</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>557596.7683567479</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>454454.4826869703</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>407712.5460032985</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>350835.199248983</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>670113.1839143734</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>497710.935644041</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>460964.4272343501</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>404349.9977512014</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>688922.9141095856</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>539374.2206152153</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>499370.0874412886</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>424241.2362345485</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>721066.2166765515</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>582855.3166153372</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>573091.6563938594</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>485561.8654842383</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>801318.3015791682</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>658690.1972072213</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>620726.6232267777</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>551157.1883779537</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>914936.5845058</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>743005.4552492657</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>686739.3237054111</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>591790.4836034637</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>957922.1875232604</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>793473.0511443204</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>736647.2852967983</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>640470.6382940478</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>1085522.016392106</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>895723.7800047558</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>782412.5280411037</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>695179.7919703152</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>1180832.631911947</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>951069.2865292674</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>847041.932176156</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>743042.7459083284</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>1294054.483346394</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>1095928.052570892</v>
       </c>
     </row>
-    <row r="3" spans="1:104">
-      <c r="A3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mining &amp; quarrying</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="n">
         <v>64670.24937051832</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>55462.63214823462</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>65815.17671214339</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>75087.31079131876</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>75789.46712712609</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>59898.65524612376</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>70446.72106300772</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>79707.16463061543</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>70645.48111660848</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>63145.103589005</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>74589.19503349284</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>87414.56366836277</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>95040.28028131893</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>68894.14728256792</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>72719.58844519223</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>71822.03117052568</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>90269.15760806527</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>61138.11927600217</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>68977.18641665643</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>73626.68980763281</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>81934.46447935724</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>60517.9102474914</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>76935.0110885524</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>107420.5262167143</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>82157.27675241017</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>67314.83145615204</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>82691.56420566427</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>103945.4613394135</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>94249.68154723334</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>79982.98334537509</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>95524.70103782146</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>107903.7172851768</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>94643.24159025881</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>72395.94228487567</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>85975.06435000259</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>105503.0179587675</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>65417.61411276418</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>64524.90335639937</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>78868.3064005792</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>116168.9299746785</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>109284.7751626539</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>100276.8275435382</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>129419.6128823443</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>174094.4420620584</v>
       </c>
     </row>
-    <row r="4" spans="1:104">
-      <c r="A4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BI4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="n">
         <v>350857.0542992997</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>329936.5302969014</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>334726.673687843</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>394465.3127214231</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>374606.4308548737</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>395938.8807736671</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>377768.4154583149</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>424523.1694200113</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>413130.9140052701</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>424394.5190853826</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>416194.2791678524</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>459731.888361367</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>471159.1579008844</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>476473.8146803699</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>435194.6591254813</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>495541.5169347756</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>530751.506647218</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>534068.6317445067</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>506026.7443206668</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>575341.9163845412</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>575996.9581923209</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>575851.6061146541</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>554949.6324105164</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>626923.1580663867</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>588489.1238865119</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>638557.610601237</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>625337.6803172714</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>714238.9494907508</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>676170.0883481452</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>704495.0116475878</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>685106.842862766</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>746787.012769072</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>677967.1181590523</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>671108.1754025799</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>649321.5709267467</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>706412.5405473172</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>453728.4818965215</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>698446.4289203831</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>710550.2828286133</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>846710.1354787458</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>749345.5644046522</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>824612.1210454246</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>800156.873288457</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>933200.4078076431</v>
       </c>
     </row>
-    <row r="5" spans="1:104">
-      <c r="A5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Electricity, gas ,water supply&amp; other utility services</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="n">
         <v>44661.96921789747</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>46631.13317742234</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>47957.24231494913</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>47417.65528973107</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>54330.44009581913</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>52470.7211755988</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>54453.29717988749</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>54095.18658049627</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>62946.29258830516</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>65066.07917947134</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>64910.7811702617</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>67231.45439932689</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>69661.88154932822</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>71640.8917122829</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>70690.69641007268</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>70264.30550966345</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>83639.89021744289</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>87112.00422936893</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>81633.53579615348</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>82579.18168906757</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>88421.8137837978</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>89213.46001009384</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>88828.72233230484</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>89245.00387380354</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>107019.5807194339</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>107508.1051925016</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>104036.4908566876</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>107153.5520727154</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>112151.6509549303</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>116805.3387196504</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>112012.8110958016</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>108489.1273487712</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>129482.2233168981</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>126976.7678552231</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>118638.271820558</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>126520.2641055213</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>115605.3196024736</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>123752.2472487113</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>129362.0007677568</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>138632.686100225</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>128982.3491335774</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>138571.5636399791</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>150910.7731569525</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>168214.4265277448</v>
       </c>
     </row>
-    <row r="6" spans="1:104">
-      <c r="A6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="n">
         <v>182218.7489197805</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>189095.7808303451</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>197079.148055616</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>208940.8711399426</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>203182.4057335606</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>202601.5575336594</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>211962.6918410831</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>231618.2418618711</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>221809.9957751788</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>224408.1530141933</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>231689.9226514811</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>243561.9080480461</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>247541.1584241315</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>246390.4410018193</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>242325.3851386563</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>242828.8882047285</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>253252.4357391327</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>237074.1739934537</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>248149.3096439883</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>252607.7799864047</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>273537.973934866</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>262498.3830113663</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>274360.3386800311</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>270473.4033934276</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>288042.9143766192</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>281258.1080935132</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>306395.0708440294</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>324717.75042499</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>326661.902256406</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>316330.190120556</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>347401.495234306</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>361725.2441290173</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>350517.6581996057</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>317819.868444826</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>335097.9210452487</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>369323.8039260411</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>170899.2478338438</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>293689.7880549929</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>370557.5259767533</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>480461.3771115733</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>345254.2954862513</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>380175.6430873321</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>431680.2313551605</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>561987.5105260678</v>
       </c>
     </row>
-    <row r="7" spans="1:104">
-      <c r="A7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Trade, hotels, transport, communication and services related to broadcasting</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="n">
         <v>330069.7205194434</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>337631.4474220661</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>351579.1703717253</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>393835.7241204553</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>394347.3145371811</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>403845.6368641047</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>412552.3761051648</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>453240.3838316282</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>427469.7403759186</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>456945.8980540263</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>480885.7041800325</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>509165.2660159065</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>508205.4424295269</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>517595.3446912047</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>514665.7864631029</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>567129.9340337634</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>553747.770849903</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>541865.6167761229</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>558605.3983050967</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>640294.0627797379</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>607115.5023939706</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>594623.8535584606</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>619241.8758716751</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>718174.6235053651</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>691827.3422554873</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>675948.0696560894</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>709164.0876309995</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>801982.6943373135</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>778777.2401907003</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>757308.9722582357</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>791377.3646631668</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>875298.658774639</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>852337.499431918</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>819648.2501265905</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>860063.4220918925</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>946443.5175003202</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>425389.3031968639</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>676119.1375445871</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>795717.1729258234</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>969167.574871516</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>625257.8032667235</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>812124.1892299349</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>948462.6428569914</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>1143051.164371869</v>
       </c>
     </row>
-    <row r="8" spans="1:104">
-      <c r="A8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Financial, real estate &amp; professional services</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="n">
         <v>395101.9975649685</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>407657.0384090065</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>343064.8699063569</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>385053.4664722435</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>461069.59043431</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>479903.8208588711</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>400489.2100462172</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>435169.4355887353</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>533978.4429759022</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>585665.6094467699</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>459327.0589606037</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>490537.1099111252</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>620774.0981619763</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>695118.2536101926</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>520846.5727500431</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>526607.7654809819</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>690657.2788339208</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>773346.7881624592</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>577563.7113886683</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>584570.0548082278</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>783003.3292378183</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>874052.5278899721</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" t="n">
         <v>619110.1838362572</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" t="n">
         <v>635270.5988861917</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" t="n">
         <v>844181.7951009735</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" t="n">
         <v>914863.4827120561</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" t="n">
         <v>682492.4195704567</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" t="n">
         <v>685674.0021015961</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" t="n">
         <v>946708.5349586401</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" t="n">
         <v>1036517.086150874</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" t="n">
         <v>769435.2046001164</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" t="n">
         <v>776837.3612650342</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" t="n">
         <v>1064892.142328986</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" t="n">
         <v>1145687.305889342</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" t="n">
         <v>828768.8735837651</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" t="n">
         <v>839989.341067764</v>
       </c>
-      <c r="CS8">
+      <c r="CS8" t="n">
         <v>1038123.214742695</v>
       </c>
-      <c r="CT8">
+      <c r="CT8" t="n">
         <v>1089446.114146729</v>
       </c>
-      <c r="CU8">
+      <c r="CU8" t="n">
         <v>946718.5728271181</v>
       </c>
-      <c r="CV8">
+      <c r="CV8" t="n">
         <v>971471.7179439745</v>
       </c>
-      <c r="CW8">
+      <c r="CW8" t="n">
         <v>1145774.07977925</v>
       </c>
-      <c r="CX8">
+      <c r="CX8" t="n">
         <v>1243936.128284469</v>
       </c>
-      <c r="CY8">
+      <c r="CY8" t="n">
         <v>1065701.924682335</v>
       </c>
-      <c r="CZ8">
+      <c r="CZ8" t="n">
         <v>1087891.031366554</v>
       </c>
     </row>
-    <row r="9" spans="1:104">
-      <c r="A9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GVA at Basic Price</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="n">
         <v>1916470.296477177</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>1900302.913224852</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>2091166.28117757</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>2199006.502653209</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>2187401.875467476</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>2202206.808735497</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>2356863.563842115</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>2456219.856107836</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>2441377.22059487</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>2511852.335712072</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>2706145.180799027</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>2703777.874533343</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>2807898.653660444</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>2870607.376804312</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>2940363.616750401</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>2885409.836065331</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>3072867.321421968</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>3091942.323829127</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>3204669.86291209</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>3205019.138041119</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>3400202.478722238</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>3426441.862786826</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>3538125.124986805</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>3600430.723139293</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>3707520.326823569</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>3773800.197081789</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>3991568.682264753</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>4032776.005353871</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>4174229.651982212</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>4210938.59443914</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>4389538.158246871</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" t="n">
         <v>4400421.896156363</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" t="n">
         <v>4547088.796522389</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" t="n">
         <v>4470174.895475248</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" t="n">
         <v>4658768.14178422</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" t="n">
         <v>4679077.612025944</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" t="n">
         <v>3656788.720952953</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" t="n">
         <v>4278622.459254365</v>
       </c>
-      <c r="CU9">
+      <c r="CU9" t="n">
         <v>4917197.236019192</v>
       </c>
-      <c r="CV9">
+      <c r="CV9" t="n">
         <v>5205201.365600683</v>
       </c>
-      <c r="CW9">
+      <c r="CW9" t="n">
         <v>4623254.421649345</v>
       </c>
-      <c r="CX9">
+      <c r="CX9" t="n">
         <v>5043356.927723596</v>
       </c>
-      <c r="CY9">
+      <c r="CY9" t="n">
         <v>5686149.442672741</v>
       </c>
-      <c r="CZ9">
+      <c r="CZ9" t="n">
         <v>5996638.375792353</v>
       </c>
     </row>
-    <row r="10" spans="1:104">
-      <c r="A10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>320056.6363</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>303555.4174</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>380180.9783</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>387489.5116</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>356304.3752</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>335753.7689</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>416773.2801</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>432547.8209</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>402964.8026</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>393785.5649</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>484743.0992</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>486313.8563</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>459549.2414</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>443150.339</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>532306.4803000001</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>548218.7291</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>501049.1534</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>486792.4083</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>571967.3733</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>574655.8693</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>538002.1296</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>526693.1347000001</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>623674.8602</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>621007.7208</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>581873.791</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>575733.4072</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>659005.3988</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>669686.7494</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>635735.3484</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>638606.1268</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>756483.9899</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>754630.4721</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>720858.811</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>744945.745</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>840641.6289</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>871812.2652</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>820480.8578</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>838465.91</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>956970.6402</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>1004602.308</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>933476.863</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>984348.8053</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>1116841.559</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>1175328.676</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>1104261.842</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>1128104.966</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>1295579.811</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>1360776.149</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>1307162.472</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>1339236.709</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>1436382.583</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>1436232.336</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>1404388.805</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>1468105.018</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>1666946.669</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>1810616.422</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>1709772.419</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>1751735.347</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>2004817.359</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>2043496.29115249</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>2029469.165171891</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>2244852.229057348</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>2418511.12550929</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>2313203.092838142</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>2356953.274968776</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>2548377.826465527</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>2725478.911893716</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>2565374.445072557</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>2686203.225902797</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>2921070.044175955</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>3060874.13839594</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>2914393.223745723</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>3053982.031210274</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>3184917.063466365</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>3314666.804858127</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>3243543.361312905</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>3355884.42395621</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>3476632.468454043</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>3695813.62513326</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>3639774.606040095</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>3754117.027647742</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>3875006.702113382</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>4122770.679072154</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>4008915.958726389</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>4157246.347574461</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>4339193.521977622</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" t="n">
         <v>4584686.003245508</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" t="n">
         <v>4569369.10960454</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>4656017.01085801</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" t="n">
         <v>4872998.335604323</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" t="n">
         <v>4801283.988518902</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" t="n">
         <v>4942455.135770568</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" t="n">
         <v>4861652.38021428</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" t="n">
         <v>5130411.599083072</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" t="n">
         <v>5140336.676928321</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" t="n">
         <v>3873443.397612199</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" t="n">
         <v>4721818.866937991</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" t="n">
         <v>5448542.27054233</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" t="n">
         <v>5757109.447678288</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" t="n">
         <v>5126789.2562075</v>
       </c>
-      <c r="CX10">
+      <c r="CX10" t="n">
         <v>5620166.005813723</v>
       </c>
-      <c r="CY10">
+      <c r="CY10" t="n">
         <v>6302446.534721054</v>
       </c>
-      <c r="CZ10">
+      <c r="CZ10" t="n">
         <v>6615235.196287037</v>
       </c>
     </row>
-    <row r="11" spans="1:104">
-      <c r="A11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GFCE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>28354.96958</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>28348.9145</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>31140.31023</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>60435.83687</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>29619.48246</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>32657.11933</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>36647.42371</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>76450.55855</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>45903.12635</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>47962.8432</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>45886.97962</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>77453.83079000001</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>49368.57241</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>56334.91372</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>57883.31811</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>85521.99142000001</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>48782.2335</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>58026.16504</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>58425.14082</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>97859.23269</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>52890.87977</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>61716.30201</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>69624.87475</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>95979.82299</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>52938.05676</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>65274.21275</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>71229.35767</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>100762.7275</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>60793.34324</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>81099.08739</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>75595.5861</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>95051.22865999999</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>69155.49439000001</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>77581.09931999999</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>79959.34754</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>114457.1592</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>73351.22135000001</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="n">
         <v>93568.08652</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" t="n">
         <v>101461.7572</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" t="n">
         <v>118097.3847</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" t="n">
         <v>109452.7859</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" t="n">
         <v>85784.84937</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" t="n">
         <v>103519.9888</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>128000.8298</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>115054.5627</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" t="n">
         <v>101848.9074</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" t="n">
         <v>112762.7876</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="n">
         <v>164014.4714</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" t="n">
         <v>121103.7114</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>112466.1093</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="n">
         <v>186030.5075</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>172535.3624</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>152926.924</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>158027.0414</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>220851.2229</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>210274.3522</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>184596.2424</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>185287.1282</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>245790.9328</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>195528.2105681321</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>255853.448201414</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>223407.7676289064</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>293585.5736015476</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>240744.7554731401</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>310869.5655808108</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>209686.9209882109</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>301102.8216751256</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>308484.9117200655</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>331309.4673305265</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>237025.2117986141</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>279689.4486539892</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>337037.399741532</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" t="n">
         <v>384486.8172667525</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" t="n">
         <v>313546.6434512317</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" t="n">
         <v>266690.9161659791</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" t="n">
         <v>363606.11365903</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" t="n">
         <v>425666.7004684552</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>349864.7099232604</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>297033.520138462</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>389045.7985059342</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>455122.4099707247</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>384784.4626391301</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>357704.9287826527</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>484811.3190878361</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>504289.7767927099</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>444759.2681991152</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>406258.4984019156</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>544125.1190127513</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>570239.8338699825</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>476809.8254449861</v>
       </c>
-      <c r="CN11">
+      <c r="CN11" t="n">
         <v>454377.6380927753</v>
       </c>
-      <c r="CO11">
+      <c r="CO11" t="n">
         <v>546982.0026941941</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" t="n">
         <v>616670.2135325605</v>
       </c>
-      <c r="CQ11">
+      <c r="CQ11" t="n">
         <v>521296.9485503608</v>
       </c>
-      <c r="CR11">
+      <c r="CR11" t="n">
         <v>515922.288355011</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" t="n">
         <v>648496.103656486</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" t="n">
         <v>500590.1263174196</v>
       </c>
-      <c r="CU11">
+      <c r="CU11" t="n">
         <v>546641.5640653548</v>
       </c>
-      <c r="CV11">
+      <c r="CV11" t="n">
         <v>697562.147450165</v>
       </c>
-      <c r="CW11">
+      <c r="CW11" t="n">
         <v>660771.6641298565</v>
       </c>
-      <c r="CX11">
+      <c r="CX11" t="n">
         <v>580557.297094947</v>
       </c>
-      <c r="CY11">
+      <c r="CY11" t="n">
         <v>603011.4040400307</v>
       </c>
-      <c r="CZ11">
+      <c r="CZ11" t="n">
         <v>789526.8839337127</v>
       </c>
     </row>
-    <row r="12" spans="1:104">
-      <c r="A12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>PFCE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>220635.1762</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>221706.4472</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>234321.105</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>242741.9387</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>238567.8363</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>242178.1478</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>257658.8208</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>270036.8823</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>274974.0792</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>280928.8808</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>294613.3935</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>304199.3474</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>308824.6356</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>288678.7381</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>367044.0506</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>334952.6259</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>332777.5305</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>311864.4176</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>390729.242</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>357317.7599</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>357720.2816</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>337221.3901</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>427500.0255</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>394016.3322</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>375762.9711</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>358588.3138</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>450205.7884</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>419642.1575</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>412838.1894</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>397892.0463</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>490517.064</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>452463.424</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="n">
         <v>438138.9118</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="n">
         <v>443316.8181</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" t="n">
         <v>522886.9869</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" t="n">
         <v>494118.9584</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" t="n">
         <v>495124.4503</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="n">
         <v>496624.2225</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" t="n">
         <v>585814.3745</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" t="n">
         <v>553756.4804</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" t="n">
         <v>561294.2508</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" t="n">
         <v>584666.5634</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" t="n">
         <v>669029.3932</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>637076.4237</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>645398.4567</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>667531.3723</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>767823.7615</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>731756.8861999999</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>744485.8951</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>767010.3676999999</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>879873.9603</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>825639.117</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>828813.7899</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>867733.018</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>1007937.875</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>966254.6091999999</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>994024.518</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>1031225.272</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>1143946.616</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>1196397.952332486</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>1119458.930174283</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>1281386.002348085</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>1313205.348446259</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>1288286.60012195</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>1323175.23438246</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>1508200.85166517</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>1494822.16803002</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>1480173.306170964</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" t="n">
         <v>1515620.755820518</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>1752700.850646804</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>1727154.208958247</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" t="n">
         <v>1715731.086339145</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" t="n">
         <v>1758329.098108575</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" t="n">
         <v>1854293.233900877</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" t="n">
         <v>1918984.198690481</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" t="n">
         <v>1914897.623900509</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" t="n">
         <v>1930421.54278575</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" t="n">
         <v>2096440.746681588</v>
       </c>
-      <c r="CB12">
+      <c r="CB12" t="n">
         <v>2184647.233021471</v>
       </c>
-      <c r="CC12">
+      <c r="CC12" t="n">
         <v>2120871.245529127</v>
       </c>
-      <c r="CD12">
+      <c r="CD12" t="n">
         <v>2199049.167256289</v>
       </c>
-      <c r="CE12">
+      <c r="CE12" t="n">
         <v>2409747.877869832</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" t="n">
         <v>2396862.937451986</v>
       </c>
-      <c r="CG12">
+      <c r="CG12" t="n">
         <v>2358855.315791043</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" t="n">
         <v>2376307.137549841</v>
       </c>
-      <c r="CI12">
+      <c r="CI12" t="n">
         <v>2620783.800329951</v>
       </c>
-      <c r="CJ12">
+      <c r="CJ12" t="n">
         <v>2680204.678358221</v>
       </c>
-      <c r="CK12">
+      <c r="CK12" t="n">
         <v>2640304.41295369</v>
       </c>
-      <c r="CL12">
+      <c r="CL12" t="n">
         <v>2705685.290971869</v>
       </c>
-      <c r="CM12">
+      <c r="CM12" t="n">
         <v>2925858.417309467</v>
       </c>
-      <c r="CN12">
+      <c r="CN12" t="n">
         <v>2933446.287503202</v>
       </c>
-      <c r="CO12">
+      <c r="CO12" t="n">
         <v>2919710.051466738</v>
       </c>
-      <c r="CP12">
+      <c r="CP12" t="n">
         <v>2949713.883473808</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ12" t="n">
         <v>3233962.965987464</v>
       </c>
-      <c r="CR12">
+      <c r="CR12" t="n">
         <v>3133721.735751566</v>
       </c>
-      <c r="CS12">
+      <c r="CS12" t="n">
         <v>2295742.910268642</v>
       </c>
-      <c r="CT12">
+      <c r="CT12" t="n">
         <v>2825020.518262032</v>
       </c>
-      <c r="CU12">
+      <c r="CU12" t="n">
         <v>3424584.609280483</v>
       </c>
-      <c r="CV12">
+      <c r="CV12" t="n">
         <v>3487411.823869215</v>
       </c>
-      <c r="CW12">
+      <c r="CW12" t="n">
         <v>2846870.579030132</v>
       </c>
-      <c r="CX12">
+      <c r="CX12" t="n">
         <v>3345447.060422909</v>
       </c>
-      <c r="CY12">
+      <c r="CY12" t="n">
         <v>3985298.101473541</v>
       </c>
-      <c r="CZ12">
+      <c r="CZ12" t="n">
         <v>3917788.814338197</v>
       </c>
     </row>
-    <row r="13" spans="1:104">
-      <c r="A13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GFCF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>77985.62286</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>81225.27708</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>85971.00199999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>95497.70031</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>91100.56557999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>91898.87347999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>98122.59617</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>105620.7525</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>103777.6872</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>106334.0949</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>112191.4626</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>121212.8996</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>118862.346</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>121027.1288</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>125436.0955</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>138005.731</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>123601.5398</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>124605.7129</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>129687.9263</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>136371.6504</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>146199.3899</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>145344.0231</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>155653.9839</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>165773.7366</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>144136.4631</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>150968.0909</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>159698.1046</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="n">
         <v>169467.4818</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="n">
         <v>162778.0612</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" t="n">
         <v>176457.412</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="n">
         <v>180730.4322</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="n">
         <v>204373.1434</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" t="n">
         <v>214911.7046</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="n">
         <v>231299.3296</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" t="n">
         <v>244455.9105</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" t="n">
         <v>276216.0547</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" t="n">
         <v>257191.5474</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="n">
         <v>275570.1682</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" t="n">
         <v>296960.8169</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" t="n">
         <v>333713.9523</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" t="n">
         <v>304380.3586</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" t="n">
         <v>324364.2191</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" t="n">
         <v>360111.142</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="n">
         <v>406668.8838</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" t="n">
         <v>384666.7509</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="n">
         <v>408495.0093</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>433343.4309</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>478391.7849</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>468631.9678</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>489042.4875</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="n">
         <v>475603.8242</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" t="n">
         <v>457954.1043</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" t="n">
         <v>474716.3323</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" t="n">
         <v>521548.4735</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" t="n">
         <v>534428.8867</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" t="n">
         <v>604249.503</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>563117.7658000001</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>605506.8214</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>644296.5926</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>682095.0842824988</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>722663.5428498138</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>756940.1336207243</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>836034.0735466855</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>795727.4688498676</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>809693.2505880436</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>815439.4446664182</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>904112.9668612946</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>847937.6421178516</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" t="n">
         <v>855856.4938389808</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>875621.3069545205</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" t="n">
         <v>936205.5788618457</v>
       </c>
-      <c r="BU13">
+      <c r="BU13" t="n">
         <v>928905.5126941629</v>
       </c>
-      <c r="BV13">
+      <c r="BV13" t="n">
         <v>944023.9142007125</v>
       </c>
-      <c r="BW13">
+      <c r="BW13" t="n">
         <v>909481.1596050034</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" t="n">
         <v>967981.123703646</v>
       </c>
-      <c r="BY13">
+      <c r="BY13" t="n">
         <v>961034.5017388948</v>
       </c>
-      <c r="BZ13">
+      <c r="BZ13" t="n">
         <v>960324.2887496962</v>
       </c>
-      <c r="CA13">
+      <c r="CA13" t="n">
         <v>991937.8862238929</v>
       </c>
-      <c r="CB13">
+      <c r="CB13" t="n">
         <v>1043795.694131115</v>
       </c>
-      <c r="CC13">
+      <c r="CC13" t="n">
         <v>1085914.601717768</v>
       </c>
-      <c r="CD13">
+      <c r="CD13" t="n">
         <v>1045064.366610508</v>
       </c>
-      <c r="CE13">
+      <c r="CE13" t="n">
         <v>1070569.846067134</v>
       </c>
-      <c r="CF13">
+      <c r="CF13" t="n">
         <v>1137122.413120965</v>
       </c>
-      <c r="CG13">
+      <c r="CG13" t="n">
         <v>1125164.614991382</v>
       </c>
-      <c r="CH13">
+      <c r="CH13" t="n">
         <v>1141094.833655523</v>
       </c>
-      <c r="CI13">
+      <c r="CI13" t="n">
         <v>1209889.209504939</v>
       </c>
-      <c r="CJ13">
+      <c r="CJ13" t="n">
         <v>1339453.125672051</v>
       </c>
-      <c r="CK13">
+      <c r="CK13" t="n">
         <v>1336612.384823635</v>
       </c>
-      <c r="CL13">
+      <c r="CL13" t="n">
         <v>1344943.345926257</v>
       </c>
-      <c r="CM13">
+      <c r="CM13" t="n">
         <v>1422243.118235799</v>
       </c>
-      <c r="CN13">
+      <c r="CN13" t="n">
         <v>1464623.551692263</v>
       </c>
-      <c r="CO13">
+      <c r="CO13" t="n">
         <v>1501041.403749346</v>
       </c>
-      <c r="CP13">
+      <c r="CP13" t="n">
         <v>1359901.262012119</v>
       </c>
-      <c r="CQ13">
+      <c r="CQ13" t="n">
         <v>1399131.187788349</v>
       </c>
-      <c r="CR13">
+      <c r="CR13" t="n">
         <v>1477571.203803383</v>
       </c>
-      <c r="CS13">
+      <c r="CS13" t="n">
         <v>800026.8078386285</v>
       </c>
-      <c r="CT13">
+      <c r="CT13" t="n">
         <v>1290479.775422519</v>
       </c>
-      <c r="CU13">
+      <c r="CU13" t="n">
         <v>1433253.366101158</v>
       </c>
-      <c r="CV13">
+      <c r="CV13" t="n">
         <v>1740313.422701451</v>
       </c>
-      <c r="CW13">
+      <c r="CW13" t="n">
         <v>1443836.662730638</v>
       </c>
-      <c r="CX13">
+      <c r="CX13" t="n">
         <v>1650441.228789303</v>
       </c>
-      <c r="CY13">
+      <c r="CY13" t="n">
         <v>1647884.943024578</v>
       </c>
-      <c r="CZ13">
+      <c r="CZ13" t="n">
         <v>2017627.302798462</v>
       </c>
     </row>
-    <row r="14" spans="1:104">
-      <c r="A14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>-10806.20734</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>-34805.77346</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>39396.76039</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>-12638.01921</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>9509.612259</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>-21488.88502</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>42212.55788</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>-13828.12404</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>-5526.013543</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>-51050.86032</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>74376.9621</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>-21602.01414</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>12657.91453</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>12933.79762</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>13431.52485</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>14424.13516</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>4525.804414</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>4612.080642</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>4830.236247</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>5095.227518</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>-596.8213981</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>-602.4341385</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>-623.0141867</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>-656.6906292</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>5309.477653</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>5578.29736</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>5797.506563</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>6204.774189</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>5964.517926</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>6276.315598</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>6591.140431</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>7160.246862</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>22896.02024</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>24549.5245</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="n">
         <v>25810.91599</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="n">
         <v>27546.49231</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" t="n">
         <v>30831.66849</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" t="n">
         <v>31625.39913</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" t="n">
         <v>33095.05678</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" t="n">
         <v>35735.70425</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" t="n">
         <v>42052.64906</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" t="n">
         <v>44514.15561</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" t="n">
         <v>46821.4651</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" t="n">
         <v>51617.5343</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" t="n">
         <v>58996.88639</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" t="n">
         <v>60663.236</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" t="n">
         <v>63523.3586</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" t="n">
         <v>70281.55132</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" t="n">
         <v>33916.8693</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" t="n">
         <v>34274.26255</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" t="n">
         <v>33274.98499</v>
       </c>
-      <c r="BA14">
+      <c r="BA14" t="n">
         <v>32842.6562</v>
       </c>
-      <c r="BB14">
+      <c r="BB14" t="n">
         <v>51400.82343</v>
       </c>
-      <c r="BC14">
+      <c r="BC14" t="n">
         <v>54720.35876</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" t="n">
         <v>56676.34426</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" t="n">
         <v>62542.03563</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" t="n">
         <v>79792.0246</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>82075.14161000001</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>86269.12953999999</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>51753.98253801765</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>48668.05218364979</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>49374.63338066889</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>58186.51971301962</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>51093.80007155555</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>54003.40290111713</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>51525.07352510753</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>57902.1078057581</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>34869.69404117361</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" t="n">
         <v>35820.38170367839</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" t="n">
         <v>35128.25277482063</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" t="n">
         <v>38802.97926077582</v>
       </c>
-      <c r="BU14">
+      <c r="BU14" t="n">
         <v>78435.25851154339</v>
       </c>
-      <c r="BV14">
+      <c r="BV14" t="n">
         <v>79320.00514420199</v>
       </c>
-      <c r="BW14">
+      <c r="BW14" t="n">
         <v>72448.14203214717</v>
       </c>
-      <c r="BX14">
+      <c r="BX14" t="n">
         <v>82494.26193294527</v>
       </c>
-      <c r="BY14">
+      <c r="BY14" t="n">
         <v>64910.49919072848</v>
       </c>
-      <c r="BZ14">
+      <c r="BZ14" t="n">
         <v>65316.18102723096</v>
       </c>
-      <c r="CA14">
+      <c r="CA14" t="n">
         <v>61886.67986117676</v>
       </c>
-      <c r="CB14">
+      <c r="CB14" t="n">
         <v>70363.87184990892</v>
       </c>
-      <c r="CC14">
+      <c r="CC14" t="n">
         <v>34080.99814244543</v>
       </c>
-      <c r="CD14">
+      <c r="CD14" t="n">
         <v>34072.39784722077</v>
       </c>
-      <c r="CE14">
+      <c r="CE14" t="n">
         <v>32835.65498451574</v>
       </c>
-      <c r="CF14">
+      <c r="CF14" t="n">
         <v>37094.23579695806</v>
       </c>
-      <c r="CG14">
+      <c r="CG14" t="n">
         <v>54473.79620211099</v>
       </c>
-      <c r="CH14">
+      <c r="CH14" t="n">
         <v>59108.41123702201</v>
       </c>
-      <c r="CI14">
+      <c r="CI14" t="n">
         <v>57884.70164093145</v>
       </c>
-      <c r="CJ14">
+      <c r="CJ14" t="n">
         <v>66113.8930099788</v>
       </c>
-      <c r="CK14">
+      <c r="CK14" t="n">
         <v>76507.04046916481</v>
       </c>
-      <c r="CL14">
+      <c r="CL14" t="n">
         <v>79711.93830552202</v>
       </c>
-      <c r="CM14">
+      <c r="CM14" t="n">
         <v>77518.21302928706</v>
       </c>
-      <c r="CN14">
+      <c r="CN14" t="n">
         <v>84497.17784373921</v>
       </c>
-      <c r="CO14">
+      <c r="CO14" t="n">
         <v>33705.77433769585</v>
       </c>
-      <c r="CP14">
+      <c r="CP14" t="n">
         <v>33364.77553325148</v>
       </c>
-      <c r="CQ14">
+      <c r="CQ14" t="n">
         <v>32281.63395546954</v>
       </c>
-      <c r="CR14">
+      <c r="CR14" t="n">
         <v>35119.96532466105</v>
       </c>
-      <c r="CS14">
+      <c r="CS14" t="n">
         <v>-1970.019571516816</v>
       </c>
-      <c r="CT14">
+      <c r="CT14" t="n">
         <v>-3032.547414431407</v>
       </c>
-      <c r="CU14">
+      <c r="CU14" t="n">
         <v>-3085.100494172678</v>
       </c>
-      <c r="CV14">
+      <c r="CV14" t="n">
         <v>-3676.285718989095</v>
       </c>
-      <c r="CW14">
+      <c r="CW14" t="n">
         <v>49431.15990411604</v>
       </c>
-      <c r="CX14">
+      <c r="CX14" t="n">
         <v>54396.17654460038</v>
       </c>
-      <c r="CY14">
+      <c r="CY14" t="n">
         <v>52782.96720595584</v>
       </c>
-      <c r="CZ14">
+      <c r="CZ14" t="n">
         <v>61559.28689265691</v>
       </c>
     </row>
-    <row r="15" spans="1:104">
-      <c r="A15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BI15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Valuables</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="n">
         <v>55260.04683816223</v>
       </c>
-      <c r="BJ15">
+      <c r="BJ15" t="n">
         <v>65317.84606132199</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" t="n">
         <v>62021.0910041671</v>
       </c>
-      <c r="BL15">
+      <c r="BL15" t="n">
         <v>70434.34938362867</v>
       </c>
-      <c r="BM15">
+      <c r="BM15" t="n">
         <v>68569.51832073148</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" t="n">
         <v>67458.29481029688</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" t="n">
         <v>69905.85574122352</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" t="n">
         <v>67840.85548657128</v>
       </c>
-      <c r="BQ15">
+      <c r="BQ15" t="n">
         <v>38189.87334585298</v>
       </c>
-      <c r="BR15">
+      <c r="BR15" t="n">
         <v>40720.41537131453</v>
       </c>
-      <c r="BS15">
+      <c r="BS15" t="n">
         <v>35542.02176829836</v>
       </c>
-      <c r="BT15">
+      <c r="BT15" t="n">
         <v>47309.11900742508</v>
       </c>
-      <c r="BU15">
+      <c r="BU15" t="n">
         <v>53194.50126174635</v>
       </c>
-      <c r="BV15">
+      <c r="BV15" t="n">
         <v>48591.68222196172</v>
       </c>
-      <c r="BW15">
+      <c r="BW15" t="n">
         <v>45802.18107299945</v>
       </c>
-      <c r="BX15">
+      <c r="BX15" t="n">
         <v>61818.31223120713</v>
       </c>
-      <c r="BY15">
+      <c r="BY15" t="n">
         <v>46212.18348111307</v>
       </c>
-      <c r="BZ15">
+      <c r="BZ15" t="n">
         <v>52176.60403273304</v>
       </c>
-      <c r="CA15">
+      <c r="CA15" t="n">
         <v>51419.26881120923</v>
       </c>
-      <c r="CB15">
+      <c r="CB15" t="n">
         <v>53697.90922487654</v>
       </c>
-      <c r="CC15">
+      <c r="CC15" t="n">
         <v>38439.00534315614</v>
       </c>
-      <c r="CD15">
+      <c r="CD15" t="n">
         <v>44547.281342871</v>
       </c>
-      <c r="CE15">
+      <c r="CE15" t="n">
         <v>43233.47430129795</v>
       </c>
-      <c r="CF15">
+      <c r="CF15" t="n">
         <v>41106.55953465393</v>
       </c>
-      <c r="CG15">
+      <c r="CG15" t="n">
         <v>81416.39719177256</v>
       </c>
-      <c r="CH15">
+      <c r="CH15" t="n">
         <v>58760.82496560826</v>
       </c>
-      <c r="CI15">
+      <c r="CI15" t="n">
         <v>54465.4854444645</v>
       </c>
-      <c r="CJ15">
+      <c r="CJ15" t="n">
         <v>47042.66877715585</v>
       </c>
-      <c r="CK15">
+      <c r="CK15" t="n">
         <v>53629.71557193282</v>
       </c>
-      <c r="CL15">
+      <c r="CL15" t="n">
         <v>59785.40729242445</v>
       </c>
-      <c r="CM15">
+      <c r="CM15" t="n">
         <v>59676.85532434253</v>
       </c>
-      <c r="CN15">
+      <c r="CN15" t="n">
         <v>53012.35185246165</v>
       </c>
-      <c r="CO15">
+      <c r="CO15" t="n">
         <v>48178.83744523252</v>
       </c>
-      <c r="CP15">
+      <c r="CP15" t="n">
         <v>53685.35869385893</v>
       </c>
-      <c r="CQ15">
+      <c r="CQ15" t="n">
         <v>49797.89786624678</v>
       </c>
-      <c r="CR15">
+      <c r="CR15" t="n">
         <v>43046.34609349284</v>
       </c>
-      <c r="CS15">
+      <c r="CS15" t="n">
         <v>4459.400885724887</v>
       </c>
-      <c r="CT15">
+      <c r="CT15" t="n">
         <v>69016.14737647194</v>
       </c>
-      <c r="CU15">
+      <c r="CU15" t="n">
         <v>66399.39155322</v>
       </c>
-      <c r="CV15">
+      <c r="CV15" t="n">
         <v>131539.2895978233</v>
       </c>
-      <c r="CW15">
+      <c r="CW15" t="n">
         <v>31868.9474138805</v>
       </c>
-      <c r="CX15">
+      <c r="CX15" t="n">
         <v>190816.8776542962</v>
       </c>
-      <c r="CY15">
+      <c r="CY15" t="n">
         <v>106141.6418545241</v>
       </c>
-      <c r="CZ15">
+      <c r="CZ15" t="n">
         <v>72858.80685838351</v>
       </c>
     </row>
-    <row r="16" spans="1:104">
-      <c r="A16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Exports of goods and services</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>34084.09664</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>35183.80876</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>35172.84155</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>39982.46193</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>38294.00765</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>39347.87054</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>41954.11237</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>45115.70106</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>42920.75388</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>49721.43362</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>46493.07986</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>55563.97625</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>48606.22957</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>55920.44467</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>56917.47508</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>65575.68717</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>59813.37067</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>67069.70005</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>72288.11554</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>78127.67601</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>70271.39178000001</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>69050.0349</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>70375.08249</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>80195.78891</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" t="n">
         <v>82102.3336</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="n">
         <v>87306.82412</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" t="n">
         <v>87839.23752</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" t="n">
         <v>97250.19271</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" t="n">
         <v>87146.26615</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" t="n">
         <v>96614.04803999999</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" t="n">
         <v>105850.5193</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" t="n">
         <v>126572.758</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" t="n">
         <v>119814.5602</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" t="n">
         <v>125164.824</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" t="n">
         <v>144450.2233</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" t="n">
         <v>177929.0533</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" t="n">
         <v>153147.8216</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" t="n">
         <v>157534.1023</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" t="n">
         <v>183715.976</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" t="n">
         <v>215571.3764</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" t="n">
         <v>204696.7475</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" t="n">
         <v>224330.7887</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" t="n">
         <v>218325.5339</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" t="n">
         <v>254827.8698</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" t="n">
         <v>225615.198</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" t="n">
         <v>237354.8538</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" t="n">
         <v>261138.618</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" t="n">
         <v>291768.1338</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" t="n">
         <v>332425.8106</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" t="n">
         <v>356107.7981</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" t="n">
         <v>324716.8611</v>
       </c>
-      <c r="BA16">
+      <c r="BA16" t="n">
         <v>311562.8261</v>
       </c>
-      <c r="BB16">
+      <c r="BB16" t="n">
         <v>295468.8807</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" t="n">
         <v>308208.3865</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" t="n">
         <v>328328.6379</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" t="n">
         <v>362911.5652</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" t="n">
         <v>369221.6085</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" t="n">
         <v>384660.3038</v>
       </c>
-      <c r="BH16">
+      <c r="BH16" t="n">
         <v>447563.6404</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" t="n">
         <v>493074.8776915286</v>
       </c>
-      <c r="BJ16">
+      <c r="BJ16" t="n">
         <v>503937.3146648139</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" t="n">
         <v>557993.2676540371</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" t="n">
         <v>588925.5399896203</v>
       </c>
-      <c r="BM16">
+      <c r="BM16" t="n">
         <v>555655.0267185079</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" t="n">
         <v>694342.2041248424</v>
       </c>
-      <c r="BO16">
+      <c r="BO16" t="n">
         <v>566043.3929024993</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" t="n">
         <v>623666.3762541503</v>
       </c>
-      <c r="BQ16">
+      <c r="BQ16" t="n">
         <v>616226.4836772573</v>
       </c>
-      <c r="BR16">
+      <c r="BR16" t="n">
         <v>747412.7919232657</v>
       </c>
-      <c r="BS16">
+      <c r="BS16" t="n">
         <v>726997.8810457791</v>
       </c>
-      <c r="BT16">
+      <c r="BT16" t="n">
         <v>766144.1435693529</v>
       </c>
-      <c r="BU16">
+      <c r="BU16" t="n">
         <v>706895.726583947</v>
       </c>
-      <c r="BV16">
+      <c r="BV16" t="n">
         <v>727107.8590567581</v>
       </c>
-      <c r="BW16">
+      <c r="BW16" t="n">
         <v>732620.0391711837</v>
       </c>
-      <c r="BX16">
+      <c r="BX16" t="n">
         <v>697012.6533644771</v>
       </c>
-      <c r="BY16">
+      <c r="BY16" t="n">
         <v>671293.8470525045</v>
       </c>
-      <c r="BZ16">
+      <c r="BZ16" t="n">
         <v>687100.6106157851</v>
       </c>
-      <c r="CA16">
+      <c r="CA16" t="n">
         <v>677377.3583711464</v>
       </c>
-      <c r="CB16">
+      <c r="CB16" t="n">
         <v>692875.6059593986</v>
       </c>
-      <c r="CC16">
+      <c r="CC16" t="n">
         <v>704794.9034417019</v>
       </c>
-      <c r="CD16">
+      <c r="CD16" t="n">
         <v>720886.1668212321</v>
       </c>
-      <c r="CE16">
+      <c r="CE16" t="n">
         <v>743329.3202809931</v>
       </c>
-      <c r="CF16">
+      <c r="CF16" t="n">
         <v>779761.7159855181</v>
       </c>
-      <c r="CG16">
+      <c r="CG16" t="n">
         <v>758515.4772156918</v>
       </c>
-      <c r="CH16">
+      <c r="CH16" t="n">
         <v>784764.9490383805</v>
       </c>
-      <c r="CI16">
+      <c r="CI16" t="n">
         <v>817204.8116802711</v>
       </c>
-      <c r="CJ16">
+      <c r="CJ16" t="n">
         <v>851035.3335068339</v>
       </c>
-      <c r="CK16">
+      <c r="CK16" t="n">
         <v>870373.8433406518</v>
       </c>
-      <c r="CL16">
+      <c r="CL16" t="n">
         <v>924644.9529739422</v>
       </c>
-      <c r="CM16">
+      <c r="CM16" t="n">
         <v>983151.7492378604</v>
       </c>
-      <c r="CN16">
+      <c r="CN16" t="n">
         <v>988122.9878332363</v>
       </c>
-      <c r="CO16">
+      <c r="CO16" t="n">
         <v>930664.8104313399</v>
       </c>
-      <c r="CP16">
+      <c r="CP16" t="n">
         <v>927287.4158148757</v>
       </c>
-      <c r="CQ16">
+      <c r="CQ16" t="n">
         <v>963769.8381459911</v>
       </c>
-      <c r="CR16">
+      <c r="CR16" t="n">
         <v>930465.7602315916</v>
       </c>
-      <c r="CS16">
+      <c r="CS16" t="n">
         <v>748963.0462415729</v>
       </c>
-      <c r="CT16">
+      <c r="CT16" t="n">
         <v>928387.2069560795</v>
       </c>
-      <c r="CU16">
+      <c r="CU16" t="n">
         <v>958567.4475788058</v>
       </c>
-      <c r="CV16">
+      <c r="CV16" t="n">
         <v>1068615.205229579</v>
       </c>
-      <c r="CW16">
+      <c r="CW16" t="n">
         <v>1128349.425928569</v>
       </c>
-      <c r="CX16">
+      <c r="CX16" t="n">
         <v>1225739.197566409</v>
       </c>
-      <c r="CY16">
+      <c r="CY16" t="n">
         <v>1312634.887119818</v>
       </c>
-      <c r="CZ16">
+      <c r="CZ16" t="n">
         <v>1397161.933191282</v>
       </c>
     </row>
-    <row r="17" spans="1:104">
-      <c r="A17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Imports of goods and services</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>35762.03108</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>38794.90991</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>40378.19238</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>45708.67645</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>43310.03882</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>46236.15013</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>46838.73152</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>47515.13911</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>57278.40973</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>57586.68535</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>53398.5265</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>55953.52289</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>59011.29729</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>64015.53512</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>66627.39608000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>75423.72082</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>69905.19258</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>74627.06038</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>75600.76479</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>76691.19401000001</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>79274.37102999999</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>79700.36814000001</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>73905.01166</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>77439.69026</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" t="n">
         <v>87116.908</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" t="n">
         <v>92747.65201999999</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" t="n">
         <v>93716.37144</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" t="n">
         <v>105507.6123</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" t="n">
         <v>103652.9785</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" t="n">
         <v>105560.4878</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" t="n">
         <v>106306.731</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" t="n">
         <v>120331.7132</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" t="n">
         <v>121522.3527</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" t="n">
         <v>153212.2487</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" t="n">
         <v>174378.364</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" t="n">
         <v>175361.886</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" t="n">
         <v>188350.8659</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" t="n">
         <v>192004.6726</v>
       </c>
-      <c r="AN17">
+      <c r="AN17" t="n">
         <v>210832.2986</v>
       </c>
-      <c r="AO17">
+      <c r="AO17" t="n">
         <v>220367.5863</v>
       </c>
-      <c r="AP17">
+      <c r="AP17" t="n">
         <v>244652.1204</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ17" t="n">
         <v>265774.1084</v>
       </c>
-      <c r="AR17">
+      <c r="AR17" t="n">
         <v>261981.6049</v>
       </c>
-      <c r="AS17">
+      <c r="AS17" t="n">
         <v>265683.2758</v>
       </c>
-      <c r="AT17">
+      <c r="AT17" t="n">
         <v>267505.8827</v>
       </c>
-      <c r="AU17">
+      <c r="AU17" t="n">
         <v>283646.842</v>
       </c>
-      <c r="AV17">
+      <c r="AV17" t="n">
         <v>309254.6711</v>
       </c>
-      <c r="AW17">
+      <c r="AW17" t="n">
         <v>355838.2097</v>
       </c>
-      <c r="AX17">
+      <c r="AX17" t="n">
         <v>388688.8442</v>
       </c>
-      <c r="AY17">
+      <c r="AY17" t="n">
         <v>456634.9262</v>
       </c>
-      <c r="AZ17">
+      <c r="AZ17" t="n">
         <v>414363.9287</v>
       </c>
-      <c r="BA17">
+      <c r="BA17" t="n">
         <v>350561.4271</v>
       </c>
-      <c r="BB17">
+      <c r="BB17" t="n">
         <v>356759.8931</v>
       </c>
-      <c r="BC17">
+      <c r="BC17" t="n">
         <v>383596.6972</v>
       </c>
-      <c r="BD17">
+      <c r="BD17" t="n">
         <v>442867.1257</v>
       </c>
-      <c r="BE17">
+      <c r="BE17" t="n">
         <v>460046.6709</v>
       </c>
-      <c r="BF17">
+      <c r="BF17" t="n">
         <v>486893.3188</v>
       </c>
-      <c r="BG17">
+      <c r="BG17" t="n">
         <v>490685.4192</v>
       </c>
-      <c r="BH17">
+      <c r="BH17" t="n">
         <v>519183.5374</v>
       </c>
-      <c r="BI17">
+      <c r="BI17" t="n">
         <v>626234.5577558859</v>
       </c>
-      <c r="BJ17">
+      <c r="BJ17" t="n">
         <v>636896.3868381849</v>
       </c>
-      <c r="BK17">
+      <c r="BK17" t="n">
         <v>719821.613295542</v>
       </c>
-      <c r="BL17">
+      <c r="BL17" t="n">
         <v>732601.4421103871</v>
       </c>
-      <c r="BM17">
+      <c r="BM17" t="n">
         <v>715867.4364437764</v>
       </c>
-      <c r="BN17">
+      <c r="BN17" t="n">
         <v>803996.6940108794</v>
       </c>
-      <c r="BO17">
+      <c r="BO17" t="n">
         <v>798750.1360376133</v>
       </c>
-      <c r="BP17">
+      <c r="BP17" t="n">
         <v>789813.733507731</v>
       </c>
-      <c r="BQ17">
+      <c r="BQ17" t="n">
         <v>768364.7276051685</v>
       </c>
-      <c r="BR17">
+      <c r="BR17" t="n">
         <v>827689.8096024891</v>
       </c>
-      <c r="BS17">
+      <c r="BS17" t="n">
         <v>783768.9899607098</v>
       </c>
-      <c r="BT17">
+      <c r="BT17" t="n">
         <v>811987.3714380427</v>
       </c>
-      <c r="BU17">
+      <c r="BU17" t="n">
         <v>800616.5669475776</v>
       </c>
-      <c r="BV17">
+      <c r="BV17" t="n">
         <v>840838.8115761493</v>
       </c>
-      <c r="BW17">
+      <c r="BW17" t="n">
         <v>836454.2608483268</v>
       </c>
-      <c r="BX17">
+      <c r="BX17" t="n">
         <v>758052.2864138915</v>
       </c>
-      <c r="BY17">
+      <c r="BY17" t="n">
         <v>757977.5481586813</v>
       </c>
-      <c r="BZ17">
+      <c r="BZ17" t="n">
         <v>795276.8256461454</v>
       </c>
-      <c r="CA17">
+      <c r="CA17" t="n">
         <v>758572.01029057</v>
       </c>
-      <c r="CB17">
+      <c r="CB17" t="n">
         <v>733097.0178509707</v>
       </c>
-      <c r="CC17">
+      <c r="CC17" t="n">
         <v>760291.9532634126</v>
       </c>
-      <c r="CD17">
+      <c r="CD17" t="n">
         <v>800974.2268930044</v>
       </c>
-      <c r="CE17">
+      <c r="CE17" t="n">
         <v>847859.571244035</v>
       </c>
-      <c r="CF17">
+      <c r="CF17" t="n">
         <v>811465.6759888625</v>
       </c>
-      <c r="CG17">
+      <c r="CG17" t="n">
         <v>912523.4821755346</v>
       </c>
-      <c r="CH17">
+      <c r="CH17" t="n">
         <v>877554.8379736011</v>
       </c>
-      <c r="CI17">
+      <c r="CI17" t="n">
         <v>970030.1494362351</v>
       </c>
-      <c r="CJ17">
+      <c r="CJ17" t="n">
         <v>991280.9474863956</v>
       </c>
-      <c r="CK17">
+      <c r="CK17" t="n">
         <v>1057121.59985937</v>
       </c>
-      <c r="CL17">
+      <c r="CL17" t="n">
         <v>1139191.244946351</v>
       </c>
-      <c r="CM17">
+      <c r="CM17" t="n">
         <v>1188199.685755459</v>
       </c>
-      <c r="CN17">
+      <c r="CN17" t="n">
         <v>1092656.525447445</v>
       </c>
-      <c r="CO17">
+      <c r="CO17" t="n">
         <v>1117374.840413611</v>
       </c>
-      <c r="CP17">
+      <c r="CP17" t="n">
         <v>1060389.138728967</v>
       </c>
-      <c r="CQ17">
+      <c r="CQ17" t="n">
         <v>1066233.96289454</v>
       </c>
-      <c r="CR17">
+      <c r="CR17" t="n">
         <v>1026234.086920848</v>
       </c>
-      <c r="CS17">
+      <c r="CS17" t="n">
         <v>671809.9456014737</v>
       </c>
-      <c r="CT17">
+      <c r="CT17" t="n">
         <v>877558.0816346064</v>
       </c>
-      <c r="CU17">
+      <c r="CU17" t="n">
         <v>1036806.31169536</v>
       </c>
-      <c r="CV17">
+      <c r="CV17" t="n">
         <v>1195098.237373293</v>
       </c>
-      <c r="CW17">
+      <c r="CW17" t="n">
         <v>1158548.81755185</v>
       </c>
-      <c r="CX17">
+      <c r="CX17" t="n">
         <v>1358478.766359791</v>
       </c>
-      <c r="CY17">
+      <c r="CY17" t="n">
         <v>1548120.31381867</v>
       </c>
-      <c r="CZ17">
+      <c r="CZ17" t="n">
         <v>1588743.639389731</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>